--- a/Documents/Testing_Functionality_Attempt3.xlsx
+++ b/Documents/Testing_Functionality_Attempt3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperUser\Documents\GitHub\Tafe-Solo-Game\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Unfinished\Introductory Games Programming\Assessment\AT1 - Programming Activity Tasks\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7D9992-3B2F-48DF-B418-EDB556FEB279}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DED3408-9E99-4FBE-8E5B-58CB248E4694}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -96,9 +96,6 @@
     <t>The bullet gameobject is destroyed when it comes in contact with any collider, and an enemy will take damage if a bullet enters their collider</t>
   </si>
   <si>
-    <t>Bullets were not be destroyed and were pushing the enemys and player around.</t>
-  </si>
-  <si>
     <t>The oncollisionenter function needs be corrected, with an if statement that checks the tag of the collider it enters for an "Enemy" tag and take the damage value of the bullet</t>
   </si>
   <si>
@@ -130,6 +127,21 @@
   </si>
   <si>
     <t>The Gates will now open and close when you press 'E' while facing them and within their triggers range with greater certainty and you can open and close in quic suscession by cutting off the animation if you press  'E' a second time during the animation.</t>
+  </si>
+  <si>
+    <t>Bullets were not be destroyed and passed straight through walls</t>
+  </si>
+  <si>
+    <t>Bullets are pushing past enemies and dealing damage. Still passing through walls</t>
+  </si>
+  <si>
+    <t>Bullets are flying crazily and pushing the player back after firing. Still passing through walls.</t>
+  </si>
+  <si>
+    <t>Find a balance between rigid body mass and colliders and edit the oncollison enter function further.</t>
+  </si>
+  <si>
+    <t>Check colliders on the walls, set the bullets to have a collider instead of a rigidbody to avoid crazy physics occuring.</t>
   </si>
 </sst>
 </file>
@@ -174,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +205,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -249,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -291,6 +309,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J13"/>
+  <dimension ref="C1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +667,7 @@
     <col min="4" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -701,190 +725,238 @@
         <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="3:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="C5" s="7">
+      <c r="C5" s="16">
+        <v>43912</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
         <v>43913</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="3:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="C6" s="5">
-        <v>43915</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="3:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C7" s="7">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="3:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="C8" s="6">
-        <v>43916</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>17</v>
+    <row r="8" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <v>43914</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="3:10" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="C9" s="9">
-        <v>43917</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>17</v>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="3:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="C9" s="7">
+        <v>43915</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C10" s="6">
+        <v>43916</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="3:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="C10" s="12">
-        <v>43941</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="3:10" s="11" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="3:10" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="C11" s="9">
-        <v>43941</v>
+        <v>43917</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="3:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C12" s="12">
+        <v>43941</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="13" spans="3:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
+      <c r="I12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="3:10" s="11" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="C13" s="9">
+        <v>43941</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="15" spans="3:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
